--- a/files/excelFilesforFigures/Figure14.xlsx
+++ b/files/excelFilesforFigures/Figure14.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7824656-F6FD-4E8E-AB3B-84948D8C5F69}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{755D6D0A-3578-463D-A449-F69EB6E3AAB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>ARF</t>
-  </si>
-  <si>
-    <t>version</t>
   </si>
   <si>
     <t>SSR (normalized)</t>
@@ -60,13 +57,24 @@
   <si>
     <t>TPAT</t>
   </si>
+  <si>
+    <t>DO NOT ERASE BELOW</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -94,9 +102,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1460,7 +1469,7 @@
   <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1468,7 +1477,7 @@
     <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -1479,15 +1488,15 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -1505,9 +1514,9 @@
         <v>3097.2981140452798</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -1525,9 +1534,9 @@
         <v>2845.38336584429</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>9</v>
@@ -1545,35 +1554,35 @@
         <v>2889.76718841505</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>7</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
       </c>
       <c r="B8">
         <f>B2</f>
@@ -1596,9 +1605,9 @@
         <v>9.1866628948029412</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <f>B3</f>
@@ -1621,9 +1630,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <f>B4</f>
@@ -1644,6 +1653,10 @@
       <c r="F10">
         <f t="shared" si="1"/>
         <v>9.8464103864536465</v>
+      </c>
+      <c r="H10">
+        <f>(F4-F3)/F3</f>
+        <v>1.5598538707837815E-2</v>
       </c>
     </row>
     <row r="30" spans="22:23" x14ac:dyDescent="0.25">

--- a/files/excelFilesforFigures/Figure14.xlsx
+++ b/files/excelFilesforFigures/Figure14.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20408"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{755D6D0A-3578-463D-A449-F69EB6E3AAB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE06FB35-74D9-4C79-A7A4-1D8949F7F3FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -211,19 +211,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.7423419751270748</c:v>
+                  <c:v>7.0568864515316596</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.8888888888888893</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.9671546055707303</c:v>
+                  <c:v>8.9649019086198205</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.1866628948029412</c:v>
+                  <c:v>6.2785451693837917</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -302,19 +302,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.9625263956696486</c:v>
+                  <c:v>8.2173054729783015</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.2063492063492092</c:v>
+                  <c:v>8.7069767441860435</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.8278822633035468</c:v>
+                  <c:v>8.9699527415114026</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -393,19 +393,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>8.748837209302323</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.8464103864536465</c:v>
+                  <c:v>8.7048607124424944</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1469,7 +1469,7 @@
   <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1499,19 +1499,19 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>688.45898641686301</v>
+        <v>2637.81582781832</v>
       </c>
       <c r="D2">
-        <v>0.77241379310344804</v>
+        <v>0.74137931034482696</v>
       </c>
       <c r="E2">
-        <v>0.83165268788143898</v>
+        <v>0.77732082744372699</v>
       </c>
       <c r="F2">
-        <v>3097.2981140452798</v>
+        <v>5451.1728297710497</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1519,19 +1519,19 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>1446.2876908682199</v>
+        <v>3071.5725111228999</v>
       </c>
       <c r="D3">
-        <v>0.8</v>
+        <v>0.71724137931034404</v>
       </c>
       <c r="E3">
-        <v>0.81873596871144805</v>
+        <v>0.77775877061840804</v>
       </c>
       <c r="F3">
-        <v>2845.38336584429</v>
+        <v>3802.8260930928</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1539,19 +1539,19 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>1451.72783832911</v>
+        <v>3364.13836518684</v>
       </c>
       <c r="D4">
-        <v>0.86896551724137905</v>
+        <v>0.72068965517241301</v>
       </c>
       <c r="E4">
-        <v>0.92744323529872597</v>
+        <v>0.78036408187210005</v>
       </c>
       <c r="F4">
-        <v>2889.76718841505</v>
+        <v>3931.7613421331698</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1586,23 +1586,23 @@
       </c>
       <c r="B8">
         <f>B2</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <f>C2/MAX(C$2:C$4)*10</f>
-        <v>4.7423419751270748</v>
+        <f>C2/MAX(C$2:C$4)*MAX($B$8:$B$10)</f>
+        <v>7.0568864515316596</v>
       </c>
       <c r="D8">
-        <f>D2/MAX(D$2:D$4)*10</f>
-        <v>8.8888888888888893</v>
+        <f>D2/MAX(D$2:D$4)*MAX($B$8:$B$10)</f>
+        <v>9</v>
       </c>
       <c r="E8">
-        <f>E2/MAX(E$2:E$4)*10</f>
-        <v>8.9671546055707303</v>
+        <f>E2/MAX(E$2:E$4)*MAX($B$8:$B$10)</f>
+        <v>8.9649019086198205</v>
       </c>
       <c r="F8">
-        <f>MIN(F$2:F$4)/F2*10</f>
-        <v>9.1866628948029412</v>
+        <f>MIN(F$2:F$4)/F2*MAX($B$8:$B$10)</f>
+        <v>6.2785451693837917</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1611,23 +1611,23 @@
       </c>
       <c r="B9">
         <f>B3</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C9:E10" si="0">C3/MAX(C$2:C$4)*10</f>
-        <v>9.9625263956696486</v>
+        <f>C3/MAX(C$2:C$4)*MAX($B$8:$B$10)</f>
+        <v>8.2173054729783015</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
-        <v>9.2063492063492092</v>
+        <f>D3/MAX(D$2:D$4)*MAX($B$8:$B$10)</f>
+        <v>8.7069767441860435</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
-        <v>8.8278822633035468</v>
+        <f>E3/MAX(E$2:E$4)*MAX($B$8:$B$10)</f>
+        <v>8.9699527415114026</v>
       </c>
       <c r="F9">
-        <f t="shared" ref="F9:F10" si="1">MIN(F$2:F$4)/F3*10</f>
-        <v>10</v>
+        <f>MIN(F$2:F$4)/F3*MAX($B$8:$B$10)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1636,27 +1636,27 @@
       </c>
       <c r="B10">
         <f>B4</f>
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <f>C4/MAX(C$2:C$4)*MAX($B$8:$B$10)</f>
         <v>9</v>
       </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
       <c r="D10">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>D4/MAX(D$2:D$4)*MAX($B$8:$B$10)</f>
+        <v>8.748837209302323</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>E4/MAX(E$2:E$4)*MAX($B$8:$B$10)</f>
+        <v>9</v>
       </c>
       <c r="F10">
-        <f t="shared" si="1"/>
-        <v>9.8464103864536465</v>
+        <f>MIN(F$2:F$4)/F4*MAX($B$8:$B$10)</f>
+        <v>8.7048607124424944</v>
       </c>
       <c r="H10">
         <f>(F4-F3)/F3</f>
-        <v>1.5598538707837815E-2</v>
+        <v>3.3905113166904803E-2</v>
       </c>
     </row>
     <row r="30" spans="22:23" x14ac:dyDescent="0.25">

--- a/files/excelFilesforFigures/Figure14.xlsx
+++ b/files/excelFilesforFigures/Figure14.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20408"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE06FB35-74D9-4C79-A7A4-1D8949F7F3FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45CA992-951F-4F06-806F-6D177AC32622}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>UBF</t>
   </si>
@@ -43,15 +43,6 @@
     <t>FTS(normalized)</t>
   </si>
   <si>
-    <t>SUT1-HARF/OARF</t>
-  </si>
-  <si>
-    <t>SUT2-HARF</t>
-  </si>
-  <si>
-    <t>SUT2-OARF</t>
-  </si>
-  <si>
     <t>TPAT(normalized)</t>
   </si>
   <si>
@@ -59,6 +50,24 @@
   </si>
   <si>
     <t>DO NOT ERASE BELOW</t>
+  </si>
+  <si>
+    <t>SUT3-HARF</t>
+  </si>
+  <si>
+    <t>SUT3-OARF</t>
+  </si>
+  <si>
+    <t>SUT2b+-OARF</t>
+  </si>
+  <si>
+    <t>SUT2b+-HARF/OARF</t>
+  </si>
+  <si>
+    <t>SUT3b-HARF</t>
+  </si>
+  <si>
+    <t>SUT3b-OARF</t>
   </si>
 </sst>
 </file>
@@ -102,10 +111,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -152,7 +163,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SUT1-HARF/OARF</c:v>
+                  <c:v>SUT2b+-HARF/OARF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -181,6 +192,135 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="3.2323211756486593E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-5033-436A-9561-DA0CAA11BFE0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.0864072028177061E-16"/>
+                  <c:y val="1.6161605878243297E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-5033-436A-9561-DA0CAA11BFE0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-5033-436A-9561-DA0CAA11BFE0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-5033-436A-9561-DA0CAA11BFE0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-5033-436A-9561-DA0CAA11BFE0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Feuil1!$B$7:$F$7</c:f>
@@ -208,22 +348,22 @@
             <c:numRef>
               <c:f>Feuil1!$B$8:$F$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.0568864515316596</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.9649019086198205</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.2785451693837917</c:v>
+                  <c:v>0.60580994535130528</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0">
+                  <c:v>83.028186790820385</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -243,7 +383,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SUT2-HARF</c:v>
+                  <c:v>SUT3b-HARF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -302,19 +442,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.2173054729783015</c:v>
+                  <c:v>155.15658628237657</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.7069767441860435</c:v>
+                  <c:v>157.06563714890058</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.9699527415114026</c:v>
+                  <c:v>177.10569138995913</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -334,7 +474,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SUT2-OARF</c:v>
+                  <c:v>SUT3b-OARF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -393,19 +533,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.748837209302323</c:v>
+                  <c:v>166.10038614474144</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>176.5733873797783</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.7048607124424944</c:v>
+                  <c:v>139.9836284353718</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1469,7 +1609,7 @@
   <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1491,67 +1631,67 @@
         <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>2637.81582781832</v>
+        <v>46.280840509999997</v>
       </c>
       <c r="D2">
-        <v>0.74137931034482696</v>
+        <v>0.89310344799999997</v>
       </c>
       <c r="E2">
-        <v>0.77732082744372699</v>
+        <v>0.79843820799999998</v>
       </c>
       <c r="F2">
-        <v>5451.1728297710497</v>
+        <v>1553.907796</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>180</v>
       </c>
       <c r="C3">
-        <v>3071.5725111228999</v>
+        <v>11853.18478</v>
       </c>
       <c r="D3">
-        <v>0.71724137931034404</v>
+        <v>0.77931034499999996</v>
       </c>
       <c r="E3">
-        <v>0.77775877061840804</v>
+        <v>0.78559972700000003</v>
       </c>
       <c r="F3">
-        <v>3802.8260930928</v>
+        <v>716.76748190000001</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="C4">
-        <v>3364.13836518684</v>
+        <v>13751.096949999999</v>
       </c>
       <c r="D4">
-        <v>0.72068965517241301</v>
+        <v>0.82413793099999999</v>
       </c>
       <c r="E4">
-        <v>0.78036408187210005</v>
+        <v>0.78323854999999998</v>
       </c>
       <c r="F4">
-        <v>3931.7613421331698</v>
+        <v>921.66597039999999</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1560,7 +1700,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1577,86 +1717,86 @@
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <f>B2</f>
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <f>C2/MAX(C$2:C$4)*MAX($B$8:$B$10)</f>
-        <v>7.0568864515316596</v>
+        <v>2</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" ref="C8:E10" si="0">C2/MAX(C$2:C$4)*MAX($B$8:$B$10)</f>
+        <v>0.60580994535130528</v>
       </c>
       <c r="D8">
-        <f>D2/MAX(D$2:D$4)*MAX($B$8:$B$10)</f>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>180</v>
       </c>
       <c r="E8">
-        <f>E2/MAX(E$2:E$4)*MAX($B$8:$B$10)</f>
-        <v>8.9649019086198205</v>
-      </c>
-      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="F8" s="4">
         <f>MIN(F$2:F$4)/F2*MAX($B$8:$B$10)</f>
-        <v>6.2785451693837917</v>
+        <v>83.028186790820385</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <f>B3</f>
-        <v>9</v>
+        <v>180</v>
       </c>
       <c r="C9">
-        <f>C3/MAX(C$2:C$4)*MAX($B$8:$B$10)</f>
-        <v>8.2173054729783015</v>
+        <f t="shared" si="0"/>
+        <v>155.15658628237657</v>
       </c>
       <c r="D9">
-        <f>D3/MAX(D$2:D$4)*MAX($B$8:$B$10)</f>
-        <v>8.7069767441860435</v>
+        <f t="shared" si="0"/>
+        <v>157.06563714890058</v>
       </c>
       <c r="E9">
-        <f>E3/MAX(E$2:E$4)*MAX($B$8:$B$10)</f>
-        <v>8.9699527415114026</v>
+        <f t="shared" si="0"/>
+        <v>177.10569138995913</v>
       </c>
       <c r="F9">
         <f>MIN(F$2:F$4)/F3*MAX($B$8:$B$10)</f>
-        <v>9</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <f>B4</f>
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="C10">
-        <f>C4/MAX(C$2:C$4)*MAX($B$8:$B$10)</f>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>180</v>
       </c>
       <c r="D10">
-        <f>D4/MAX(D$2:D$4)*MAX($B$8:$B$10)</f>
-        <v>8.748837209302323</v>
+        <f t="shared" si="0"/>
+        <v>166.10038614474144</v>
       </c>
       <c r="E10">
-        <f>E4/MAX(E$2:E$4)*MAX($B$8:$B$10)</f>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>176.5733873797783</v>
       </c>
       <c r="F10">
         <f>MIN(F$2:F$4)/F4*MAX($B$8:$B$10)</f>
-        <v>8.7048607124424944</v>
+        <v>139.9836284353718</v>
       </c>
       <c r="H10">
         <f>(F4-F3)/F3</f>
-        <v>3.3905113166904803E-2</v>
+        <v>0.28586465440209025</v>
       </c>
     </row>
     <row r="30" spans="22:23" x14ac:dyDescent="0.25">
